--- a/biology/Histoire de la zoologie et de la botanique/Muséum_des_sciences_naturelles_d'Angers/Muséum_des_sciences_naturelles_d'Angers.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Muséum_des_sciences_naturelles_d'Angers/Muséum_des_sciences_naturelles_d'Angers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um_des_sciences_naturelles_d%27Angers</t>
+          <t>Muséum_des_sciences_naturelles_d'Angers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muséum des sciences naturelles d’Angers est un musée municipal de la ville d’Angers (Maine-et-Loire). Consacré à l’histoire naturelle, le muséum d’Angers abrite dans ses collections environ 830 000 objets, dont 3 000 oiseaux naturalisés, 150 000 coquillages, 150 000 fossiles, 93 315 insectes et 350 000 collectes d’herbier, ainsi que des centaines de spécimens naturalisés ou en liquide, squelettes, minéraux, instruments techniques et documents[2]. Le Muséum accueille annuellement plus de 30 000 visiteurs ainsi que des groupes scolaires, des stagiaires, des chercheurs et des bénévoles.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muséum des sciences naturelles d’Angers est un musée municipal de la ville d’Angers (Maine-et-Loire). Consacré à l’histoire naturelle, le muséum d’Angers abrite dans ses collections environ 830 000 objets, dont 3 000 oiseaux naturalisés, 150 000 coquillages, 150 000 fossiles, 93 315 insectes et 350 000 collectes d’herbier, ainsi que des centaines de spécimens naturalisés ou en liquide, squelettes, minéraux, instruments techniques et documents. Le Muséum accueille annuellement plus de 30 000 visiteurs ainsi que des groupes scolaires, des stagiaires, des chercheurs et des bénévoles.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um_des_sciences_naturelles_d%27Angers</t>
+          <t>Muséum_des_sciences_naturelles_d'Angers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,18 +523,20 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ouvert au public depuis 1801, le Muséum d’Angers est l’héritier d’une longue et riche histoire.
-Le noyau initial des collections date de la Révolution française. Par le décret du 22 novembre 1790, Gabriel Éléonore Merlet de la Boulaye (1736-1807) est chargé de réunir les livres et les collections d’Histoire naturelle saisis dans les maisons nationales. Récupérées dans tout le département, notamment dans les maisons des émigrés, elles sont initialement rassemblées dans l’abbaye Saint-Serge d'Angers. Malheureusement, elles sont pillées par les Vendéens qui assiègent Angers en décembre 1793[3].
+Le noyau initial des collections date de la Révolution française. Par le décret du 22 novembre 1790, Gabriel Éléonore Merlet de la Boulaye (1736-1807) est chargé de réunir les livres et les collections d’Histoire naturelle saisis dans les maisons nationales. Récupérées dans tout le département, notamment dans les maisons des émigrés, elles sont initialement rassemblées dans l’abbaye Saint-Serge d'Angers. Malheureusement, elles sont pillées par les Vendéens qui assiègent Angers en décembre 1793.
 En 1795, l’École centrale de Maine-et-Loire est créée au logis Barrault. Joseph-Étienne Renou (1740-1809), collaborateur de Merlet, est appelé à la chaire d’Histoire naturelle et, avec ce qui restait des collections à l’abbaye Saint-Serge, forme un cabinet d’Histoire naturelle destiné à l’enseignement dans la toute nouvelle École. Les collections s’enrichissent grâce notamment à Louis-Marie de La Révellière-Lépeaux (1753-1824), membre du Directoire :
-« Le citoyen Lépeaux a fait ces jours derniers une demande très importante pour votre école d’Histoire naturelle. (...) Vous aurez un herbier avec une collection d’insectes et de minéraux, cela formera un commencement de cabinet qui s’enrichira par la suite. Le grand but en demandant ces objets est d’obtenir un muséum dans la ville d’Angers[4]. »
+« Le citoyen Lépeaux a fait ces jours derniers une demande très importante pour votre école d’Histoire naturelle. (...) Vous aurez un herbier avec une collection d’insectes et de minéraux, cela formera un commencement de cabinet qui s’enrichira par la suite. Le grand but en demandant ces objets est d’obtenir un muséum dans la ville d’Angers. »
 — Lettre du citoyen Mamert Coullion, membre du Conseil des Cinq-Cents, aux administrateurs du département de Maine-et-Loire, 1796.
-De plus, La Révellière-Lépeaux invite Renou en 1798 à rapporter pour son cabinet des objets des collections du Muséum national d'Histoire naturelle, dont une collection de 12 poissons fossiles rapportés d’Italie (Monte Bolca) par Bonaparte en 1797 (collection qui existe encore, avec ses étiquettes d’origine)[5]. Le cabinet ouvre finalement ses portes au public comme « muséum d'Histoire naturelle » le 5 mai 1801. En 1805, l’École centrale étant supprimée, le Muséum devient municipal, tout en restant hébergé dans le logis Barrault avec le Musée des Beaux-Arts d’Angers.
+De plus, La Révellière-Lépeaux invite Renou en 1798 à rapporter pour son cabinet des objets des collections du Muséum national d'Histoire naturelle, dont une collection de 12 poissons fossiles rapportés d’Italie (Monte Bolca) par Bonaparte en 1797 (collection qui existe encore, avec ses étiquettes d’origine). Le cabinet ouvre finalement ses portes au public comme « muséum d'Histoire naturelle » le 5 mai 1801. En 1805, l’École centrale étant supprimée, le Muséum devient municipal, tout en restant hébergé dans le logis Barrault avec le Musée des Beaux-Arts d’Angers.
 Le Muséum d’Angers attire rapidement l’intérêt et ses collections augmentent. En 1806, Étienne Geoffroy Saint-Hilaire (1772-1844) envoie au Muséum d’Angers, au nom du Muséum national, d’importants fossiles et moulages. L’affluence des visiteurs est grande :
-« Il vient beaucoup d’étrangers tous les jours et, ceux d’ouverture publique, il y a affluence de personnes, les unes par curiosité, les autres pour leur instruction, tels que les écoliers qui se sont instruits à l’école et qui se font un plaisir de venir y revoir les objets qu’ils ont étudiés, ils y amènent d’autres élèves qu’ils font : les professeurs des écoles secondaires y amènent aussi leurs élèves, ils y viennent voir les objets dont on les a entretenus et apprendre le nom et comparer ce qu’ils ont pu recueillir. Les chimistes pour la minéralogie, les orfèvres et les joailliers pour les pierres, les cailloux et les cristaux. Les peintres, les potiers et faïences viennent pour imiter les coquillages et les marbres ; enfin, chacun s’attache plus particulièrement à examiner l’objet qu’il veut reconnaître, imiter ou qui l’affecte davantage[6] »
+« Il vient beaucoup d’étrangers tous les jours et, ceux d’ouverture publique, il y a affluence de personnes, les unes par curiosité, les autres pour leur instruction, tels que les écoliers qui se sont instruits à l’école et qui se font un plaisir de venir y revoir les objets qu’ils ont étudiés, ils y amènent d’autres élèves qu’ils font : les professeurs des écoles secondaires y amènent aussi leurs élèves, ils y viennent voir les objets dont on les a entretenus et apprendre le nom et comparer ce qu’ils ont pu recueillir. Les chimistes pour la minéralogie, les orfèvres et les joailliers pour les pierres, les cailloux et les cristaux. Les peintres, les potiers et faïences viennent pour imiter les coquillages et les marbres ; enfin, chacun s’attache plus particulièrement à examiner l’objet qu’il veut reconnaître, imiter ou qui l’affecte davantage »
 — Rapport de Guilloteau, aide-naturaliste, sur le cabinet d'Histoire naturelle, 1807.
-Après le décès de Renou (1809), l’administration du Muséum traverse une période troublée. Guilloteau, l’aide-naturaliste, administre le Muséum à l’époque des directeurs Bastard (qui est aussi directeur du Jardin des plantes d'Angers et s’occupe moins du Muséum) et de Tussac (qui travaillait à Paris). En 1821, Auguste Nicaise Desvaux[7] (1784-1856) remplace Guilloteau comme aide-naturaliste (à la retraite de celui-ci) et est nommé directeur en 1822. Desvaux essaye de donner un ordre aux collections et se querelle avec la municipalité pour résoudre les nombreux problèmes logistiques du Muséum, sans résultats.
+Après le décès de Renou (1809), l’administration du Muséum traverse une période troublée. Guilloteau, l’aide-naturaliste, administre le Muséum à l’époque des directeurs Bastard (qui est aussi directeur du Jardin des plantes d'Angers et s’occupe moins du Muséum) et de Tussac (qui travaillait à Paris). En 1821, Auguste Nicaise Desvaux (1784-1856) remplace Guilloteau comme aide-naturaliste (à la retraite de celui-ci) et est nommé directeur en 1822. Desvaux essaye de donner un ordre aux collections et se querelle avec la municipalité pour résoudre les nombreux problèmes logistiques du Muséum, sans résultats.
 Ce n’est que sous la direction d’Alexandre Boreau (1803-1875) que l’agrandissement du Muséum a lieu, de nouvelles salles du Muséum au premier étage du logis Barrault étant inaugurées en 1849. La même année, le Muséum s’enrichit de l’héritage de la collection de Pierre-Aimé Millet de la Turtaudière (1783-1873), doyen de l’histoire naturelle angevine. Sa collection se composait surtout de fossiles du tuffeau et des faluns d’Anjou, mais qui ont aujourd’hui presque tous disparus. En 1864 une exposition temporaire de géologie devient l’exposition permanente. En 1871, il est à remarquer la création de la Société d'études scientifiques de l'Anjou (SESA) par un groupe de savants fortement liés au Muséum. En 1883, Alphonse Milne-Edwards (1835-1900), professeur d’ornithologie au Muséum national, fait don au Muséum d’Angers de 65 oiseaux.
 Le siège du Muséum reste toujours au logis Barrault, mais en 1885 la ville d'Angers décide l’acquisition de la collection Soye, constituée de 13 000 échantillons fossiles et, alors, les collections de paléontologie deviennent trop imposantes dans les locaux du logis Barrault et sont installées dans l’ancien hôtel de ville – place Imbach – et constituent un musée paléontologique. Les collections de géologie viennent ensuite y prendre place. La même année un moulage d’ichthyosaure de Holzmaden entre dans les collections, acheté au musée cantonal de géologie de Lausanne, où l’original se trouve toujours. Un fossile authentique d’ichthyosaure, en provenance de Holzmaden, sera ajouté aux collections plus tard.
 Les collections de botanique se développent à Angers depuis la création de la Société des Botanophiles en 1777. Conservées au Jardin des plantes durant presque tout le XIXe siècle, les herbiers seront logés en 1895 dans l’ancien logis des maires, aile nord de l’ancien hôtel de ville, contigu au musée Paléontologique. La SESA vient y prendre place également. L’herbier d’Alexandre Boreau est acheté par la municipalité en 1875, et celui de James Lloyd (1810-1896) est légué à la ville en 1897. Tous les herbiers sont regroupés à l’Arboretum Gaston-Allard à partir de 1964 ; la SESA accompagne ce déménagement. De 1898 jusqu’à 2005 ces collections formaient le musée Botanique.
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um_des_sciences_naturelles_d%27Angers</t>
+          <t>Muséum_des_sciences_naturelles_d'Angers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,9 +571,11 @@
           <t>Missions du Muséum</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Muséum d’Angers suit le Muséum national en adoptant cinq missions principales[8] : la conservation des collections, la diffusion des connaissances, l’expertise, la pédagogie et la recherche scientifique (pourtant ces deux dernières ne sont accomplis à Angers que par la médiation, par le prêt d’objets et par l’accueil de stagiaires et chercheurs externes ; un projet scientifique est parfois mis en place sous l’égide du Muséum). Le Muséum fait partie de réseaux consacrés aux muséums et contribue à des bases de données patrimoniales, nationales et internationales, au bénéfice des scientifiques et du public en général. Le Muséum souscrit à la définition de musée de l’ICOM et se présente donc comme « une institution permanente sans but lucratif au service de la société et de son développement ouvert au public, qui acquiert, conserve, étudie, expose et transmet le patrimoine matériel et immatériel de l’humanité et de son environnement à des fins d’études, d’éducation et de délectation »[9]. Le Muséum d’Angers est labellisé « musée de France » au sens de la loi n°2002-5 du 4 janvier 2002[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Muséum d’Angers suit le Muséum national en adoptant cinq missions principales : la conservation des collections, la diffusion des connaissances, l’expertise, la pédagogie et la recherche scientifique (pourtant ces deux dernières ne sont accomplis à Angers que par la médiation, par le prêt d’objets et par l’accueil de stagiaires et chercheurs externes ; un projet scientifique est parfois mis en place sous l’égide du Muséum). Le Muséum fait partie de réseaux consacrés aux muséums et contribue à des bases de données patrimoniales, nationales et internationales, au bénéfice des scientifiques et du public en général. Le Muséum souscrit à la définition de musée de l’ICOM et se présente donc comme « une institution permanente sans but lucratif au service de la société et de son développement ouvert au public, qui acquiert, conserve, étudie, expose et transmet le patrimoine matériel et immatériel de l’humanité et de son environnement à des fins d’études, d’éducation et de délectation ». Le Muséum d’Angers est labellisé « musée de France » au sens de la loi n°2002-5 du 4 janvier 2002.
 </t>
         </is>
       </c>
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um_des_sciences_naturelles_d%27Angers</t>
+          <t>Muséum_des_sciences_naturelles_d'Angers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,15 +604,87 @@
           <t>Bâtiments</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Muséum d’Angers est établi dans deux sites : le site central et siège du Muséum, en centre-ville d'Angers, et le site de l’Arboretum Gaston-Allard[2].
-Site central
-Le site central est installé dans deux bâtiments d’origines distinctes reliés par un petit jardin adossé aux remparts médiévaux, l’hôtel Demarie-Valentin et l’ancien hôtel de ville.
-L’hôtel Demarie-Valentin a été bâti par Jean-François Demarie vers 1800 à l’emplacement de l’ancienne église paroissiale Saint-Michel-du-Tertre, détruite pendant la Révolution. Œuvre unique du néoclassicisme angevin, la disposition intérieure de l’hôtel Demarie-Valentin est surprenante : depuis la porte d’entrée, un escalier construit sur le schiste mène à une cour circulaire dominée par un balcon périphérique ; le vestibule du rez-de-jardin fait communiquer deux salles octogonales entre elles, chacune à son tour donnant passage pour une aile sur le jardin ; une colonnade donne à la façade côté jardin un aspect « à l’antique ». Cédé à la ville d’Angers par sa dernière propriétaire en 1958, l’hôtel particulier est utilisé pour y aménager les collections de zoologie[11],[12]. Ce bâtiment abrite l’accueil du Muséum, le laboratoire de taxidermie-restauration et une partie des réserves. L’hôtel Demarie-Valentin fait l’objet d’une inscription au titre des monuments historiques depuis le 28 août 1995[1].
-Le bâtiment de l’ancien hôtel de ville date du XIIIe siècle. Les collections de paléontologie sont installées depuis 1885 dans l’ancienne grande salle du Conseil municipal (1529-1823, devenue la grande salle de la Cour d’appel entre 1823 et 1885), qui comprend de belles boiseries et une porte sculptée par le menuisier Pierre-Louis David (1756-1821)[13], le père du fameux sculpteur angevin du même nom, dit David d’Angers. Aujourd’hui le cabinet du directeur-conservateur, des bureaux de travail, la bibliothèque et une partie des réserves se trouvent aussi dans ce bâtiment.
-Site de l’Arboretum
-Le site de l’Arboretum Gaston-Allard abrite surtout les collections d’herbiers, dans la demeure de Gaston Allard (1838-1918). Allard, botaniste angevin, démarra les plantations autour de sa belle demeure de la Maulévrie en 1863. La création de l’arboretum remonte à 1882[14]. En 1916, Allard fait don de son arboretum à l’Institut Pasteur. En 1959, la ville d’Angers devient propriétaire de l’Arboretum Gaston-Allard en rachetant le parc à l’Institut Pasteur. C’est ici que siègent également la Société d'études scientifiques de l'Anjou et la Société d'Horticulture d'Angers et Maine-et-Loire.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Muséum d’Angers est établi dans deux sites : le site central et siège du Muséum, en centre-ville d'Angers, et le site de l’Arboretum Gaston-Allard.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Muséum_des_sciences_naturelles_d'Angers</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_des_sciences_naturelles_d%27Angers</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Bâtiments</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Site central</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site central est installé dans deux bâtiments d’origines distinctes reliés par un petit jardin adossé aux remparts médiévaux, l’hôtel Demarie-Valentin et l’ancien hôtel de ville.
+L’hôtel Demarie-Valentin a été bâti par Jean-François Demarie vers 1800 à l’emplacement de l’ancienne église paroissiale Saint-Michel-du-Tertre, détruite pendant la Révolution. Œuvre unique du néoclassicisme angevin, la disposition intérieure de l’hôtel Demarie-Valentin est surprenante : depuis la porte d’entrée, un escalier construit sur le schiste mène à une cour circulaire dominée par un balcon périphérique ; le vestibule du rez-de-jardin fait communiquer deux salles octogonales entre elles, chacune à son tour donnant passage pour une aile sur le jardin ; une colonnade donne à la façade côté jardin un aspect « à l’antique ». Cédé à la ville d’Angers par sa dernière propriétaire en 1958, l’hôtel particulier est utilisé pour y aménager les collections de zoologie,. Ce bâtiment abrite l’accueil du Muséum, le laboratoire de taxidermie-restauration et une partie des réserves. L’hôtel Demarie-Valentin fait l’objet d’une inscription au titre des monuments historiques depuis le 28 août 1995.
+Le bâtiment de l’ancien hôtel de ville date du XIIIe siècle. Les collections de paléontologie sont installées depuis 1885 dans l’ancienne grande salle du Conseil municipal (1529-1823, devenue la grande salle de la Cour d’appel entre 1823 et 1885), qui comprend de belles boiseries et une porte sculptée par le menuisier Pierre-Louis David (1756-1821), le père du fameux sculpteur angevin du même nom, dit David d’Angers. Aujourd’hui le cabinet du directeur-conservateur, des bureaux de travail, la bibliothèque et une partie des réserves se trouvent aussi dans ce bâtiment.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Muséum_des_sciences_naturelles_d'Angers</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_des_sciences_naturelles_d%27Angers</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Bâtiments</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Site de l’Arboretum</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site de l’Arboretum Gaston-Allard abrite surtout les collections d’herbiers, dans la demeure de Gaston Allard (1838-1918). Allard, botaniste angevin, démarra les plantations autour de sa belle demeure de la Maulévrie en 1863. La création de l’arboretum remonte à 1882. En 1916, Allard fait don de son arboretum à l’Institut Pasteur. En 1959, la ville d’Angers devient propriétaire de l’Arboretum Gaston-Allard en rachetant le parc à l’Institut Pasteur. C’est ici que siègent également la Société d'études scientifiques de l'Anjou et la Société d'Horticulture d'Angers et Maine-et-Loire.
 			Maison Allard à l'Arboretum Gaston-Allard, Muséum d'Angers
 			Herbier Décluy (1918), Muséum d'Angers
 			Herbier Corroy (1893-1895), Muséum d'Angers
@@ -604,31 +692,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mus%C3%A9um_des_sciences_naturelles_d%27Angers</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_des_sciences_naturelles_d%27Angers</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Muséum_des_sciences_naturelles_d'Angers</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_des_sciences_naturelles_d%27Angers</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Vie du Muséum</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Un musée n’est pas composé seulement de vitrines et visiteurs : il existe au Muséum d’Angers toute une dynamique souvent inconnue du public.
 L'équipe d'accueil est le côté le plus visible pour les visiteurs. Responsables de la billetterie, des salles d'exposition, de la surveillance des spécimens exposés et de la sécurité des visiteurs, les agents d’accueil sont la charnière entre le public et les autres professionnels dans les coulisses du Muséum.
@@ -641,51 +731,228 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Mus%C3%A9um_des_sciences_naturelles_d%27Angers</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_des_sciences_naturelles_d%27Angers</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Muséum_des_sciences_naturelles_d'Angers</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_des_sciences_naturelles_d%27Angers</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Collections</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Les collections du Muséum d’Angers se classent dans quatre grands domaines scientifiques : la botanique, la zoologie, les sciences de la Terre et la préhistoire. Le Muséum conserve en outre des collections mineures d’ethnologie, de technologie et de beaux-arts. Il continue à s’enrichir de dons, saisies de douanes et nouvelles acquisitions.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les collections du Muséum d’Angers se classent dans quatre grands domaines scientifiques : la botanique, la zoologie, les sciences de la Terre et la préhistoire. Le Muséum conserve en outre des collections mineures d’ethnologie, de technologie et de beaux-arts. Il continue à s’enrichir de dons, saisies de douanes et nouvelles acquisitions.
 L’objet conservé le plus ancien est un fossile de trilobite du genre Paradoxides de la période cambrienne, âgé d’environ 500 millions d’années. Historiquement les objets plus anciens sont des herbiers du XVIIIe siècle (et même quelques rares collectes d’herbier du XVIIe siècle). Des herbiers et animaux naturalisés avant le XIXe siècle ont une valeur patrimoniale considérable, mais la plus grande part des collections est issue de collectes aux XIXe siècle et XXe siècle. En botanique, zoologie et paléontologie, les collections du Muséum abritent plusieurs spécimens-type, dont d’astéracées, de lépidoptères et de trilobites.
-Botanique
-Les collections de botanique représentent numériquement le plus grand patrimoine du Muséum, voire plus de la moitié de l’ensemble des collections en nombre d’échantillons. Les herbiers regroupent plus de 350 000 collectes, principalement datant du XIXe siècle[15]. Ils s’articulent autour de trois collections importantes[16],[17] : l’herbier général, celui d’Alexandre Boreau et celui de James Lloyd, les trois ensembles formant environ 80 % de la totalité des collections d’herbiers. L’herbier général contient plusieurs spécimens-type, inclus des types de l’île de la Réunion, des collectes de Commerson (voyage de Bougainville), La Billardière (expédition d'Entrecasteaux), Poiteau (Saint-Domingue) et même quelques rares échantillons du XVIIe siècle. L’herbier Boreau contient sans doute plus de 100 000 collectes, matériel ayant servi à la rédaction de la Flore du centre de la France, la flore régionale la plus réputée de son époque. L’herbier Lloyd (100 000 collectes également) renferme 24 000 espèces, base de la Flore de l’ouest de la France ; il est accompagné d’une imposante bibliothèque. Au Muséum d’Angers on trouve également quelques collections de mousses (Bouvet, Bruneau), de lichens (Decuillé, Thuillier), de champignons (Gaillard, Guépin, Rabenhorst) et d’algues (Lloyd, Bory, Corillion). La botanique spécialisée n’est pas en reste car est conservée à Angers une des plus importantes collections en bathologie ? d’Europe (un herbier du genre Rubus, les ronces). Une carpothèque-séminothèque se compose d’une part d’échantillons plutôt pédagogiques (environ 1 000 espèces françaises et 200 tropicales) et d’autre part d’une collection Vilmorin de graines d’arbres du début du XXe siècle qui rassemble des collectes du Muséum national et de Roland Bonaparte (1 019 échantillons). La xylothèque, également formée de deux parties, rassemble des récoltes d’arbres abattus au Jardin des plantes d’Angers et à l’Arboretum Gaston-Allard, ainsi qu’une collection de 69 échantillons de bois précieux guyanais récoltés en 1802[18].
-Zoologie
-Dans le domaine de la zoologie, le Muséum possède des collections d’entomologie (environ 90 000 spécimens), de malacologie (environ 150 000 spécimens), d’ornithologie (4 142 spécimens, incluant l’oologie et la nidologie), de mammalogie (474 spécimens), d’herpétologie (410 spécimens), d’ichtyologie (139 spécimens) et d’invertébrés marins (plus d'une centaine de spécimens)[2]. Hors les spécimens naturalisés, il existe des spécimens ostéologiques, tératologiques, en liquide, moulages, etc. D’intérêt particulier on remarque la reconstitution du cabinet de travail de l’entomologiste angevin Gustave Abot (1843-1926), spécialiste des coléoptères du Maine-et-Loire. Le Muséum héberge la collection de référence des araignées de Maine-et-Loire[19]. Il conserve aussi les collections Servain et Surrault (malacologie d’eau douce) qui forment avec la collection Letourneux (malacologie mondiale) un ensemble remarquable. Avec le legs Boursicot en 1999, les collections de zoologie gagnent des dizaines des milliers de spécimens, surtout d’insectes et de coquillages[20]. De plus, les collections d’ornithologie sont particulièrement riches, avec des œufs, nids et naturalisations de tous les oiseaux de Maine-et-Loire, mais également des spécimens appartenant à des espèces disparues, dont une perruche de Caroline et un pigeon migrateur naturalisés ; on peut trouver aussi des moulages d’un œuf d’Æpyornis et d’une patte de moa. Il y a aussi des spécimens historiques, dont un des derniers esturgeons pêchés dans la Loire, en 1811 et des ossements de cétacés de la même époque. Parmi les montages remarquables, on note un okapi naturalisé (accompagné de son squelette).
-Sciences de la Terre et de l'Univers
-Ce domaine présente d’importantes collections de paléontologie (Plus de 150 000 fossiles, incluant la paléobotanique, la paléozoologie et la paléoichnologie) retraçant l’histoire de la Vie depuis le Cambrien il y a 500 millions d’années[2]. Les fossiles du Maine-et-Loire viennent surtout du tuffeau crétacé et des faluns tertiaires de la région, mais aussi des niveaux armoricains fossilifères comme l’Ordovicien ou le Dévonien.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Muséum_des_sciences_naturelles_d'Angers</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_des_sciences_naturelles_d%27Angers</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Botanique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les collections de botanique représentent numériquement le plus grand patrimoine du Muséum, voire plus de la moitié de l’ensemble des collections en nombre d’échantillons. Les herbiers regroupent plus de 350 000 collectes, principalement datant du XIXe siècle. Ils s’articulent autour de trois collections importantes, : l’herbier général, celui d’Alexandre Boreau et celui de James Lloyd, les trois ensembles formant environ 80 % de la totalité des collections d’herbiers. L’herbier général contient plusieurs spécimens-type, inclus des types de l’île de la Réunion, des collectes de Commerson (voyage de Bougainville), La Billardière (expédition d'Entrecasteaux), Poiteau (Saint-Domingue) et même quelques rares échantillons du XVIIe siècle. L’herbier Boreau contient sans doute plus de 100 000 collectes, matériel ayant servi à la rédaction de la Flore du centre de la France, la flore régionale la plus réputée de son époque. L’herbier Lloyd (100 000 collectes également) renferme 24 000 espèces, base de la Flore de l’ouest de la France ; il est accompagné d’une imposante bibliothèque. Au Muséum d’Angers on trouve également quelques collections de mousses (Bouvet, Bruneau), de lichens (Decuillé, Thuillier), de champignons (Gaillard, Guépin, Rabenhorst) et d’algues (Lloyd, Bory, Corillion). La botanique spécialisée n’est pas en reste car est conservée à Angers une des plus importantes collections en bathologie ? d’Europe (un herbier du genre Rubus, les ronces). Une carpothèque-séminothèque se compose d’une part d’échantillons plutôt pédagogiques (environ 1 000 espèces françaises et 200 tropicales) et d’autre part d’une collection Vilmorin de graines d’arbres du début du XXe siècle qui rassemble des collectes du Muséum national et de Roland Bonaparte (1 019 échantillons). La xylothèque, également formée de deux parties, rassemble des récoltes d’arbres abattus au Jardin des plantes d’Angers et à l’Arboretum Gaston-Allard, ainsi qu’une collection de 69 échantillons de bois précieux guyanais récoltés en 1802.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Muséum_des_sciences_naturelles_d'Angers</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_des_sciences_naturelles_d%27Angers</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Zoologie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le domaine de la zoologie, le Muséum possède des collections d’entomologie (environ 90 000 spécimens), de malacologie (environ 150 000 spécimens), d’ornithologie (4 142 spécimens, incluant l’oologie et la nidologie), de mammalogie (474 spécimens), d’herpétologie (410 spécimens), d’ichtyologie (139 spécimens) et d’invertébrés marins (plus d'une centaine de spécimens). Hors les spécimens naturalisés, il existe des spécimens ostéologiques, tératologiques, en liquide, moulages, etc. D’intérêt particulier on remarque la reconstitution du cabinet de travail de l’entomologiste angevin Gustave Abot (1843-1926), spécialiste des coléoptères du Maine-et-Loire. Le Muséum héberge la collection de référence des araignées de Maine-et-Loire. Il conserve aussi les collections Servain et Surrault (malacologie d’eau douce) qui forment avec la collection Letourneux (malacologie mondiale) un ensemble remarquable. Avec le legs Boursicot en 1999, les collections de zoologie gagnent des dizaines des milliers de spécimens, surtout d’insectes et de coquillages. De plus, les collections d’ornithologie sont particulièrement riches, avec des œufs, nids et naturalisations de tous les oiseaux de Maine-et-Loire, mais également des spécimens appartenant à des espèces disparues, dont une perruche de Caroline et un pigeon migrateur naturalisés ; on peut trouver aussi des moulages d’un œuf d’Æpyornis et d’une patte de moa. Il y a aussi des spécimens historiques, dont un des derniers esturgeons pêchés dans la Loire, en 1811 et des ossements de cétacés de la même époque. Parmi les montages remarquables, on note un okapi naturalisé (accompagné de son squelette).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Muséum_des_sciences_naturelles_d'Angers</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_des_sciences_naturelles_d%27Angers</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sciences de la Terre et de l'Univers</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce domaine présente d’importantes collections de paléontologie (Plus de 150 000 fossiles, incluant la paléobotanique, la paléozoologie et la paléoichnologie) retraçant l’histoire de la Vie depuis le Cambrien il y a 500 millions d’années. Les fossiles du Maine-et-Loire viennent surtout du tuffeau crétacé et des faluns tertiaires de la région, mais aussi des niveaux armoricains fossilifères comme l’Ordovicien ou le Dévonien.
 Le plus vieux bois fossile trouvé au monde est exposé au Muséum d'Angers.
 Les restes fossiles d'un rare plésiosaure du Crétacé et un squelette composite du sirénien fossile du Miocène Metaxytherium medium, ancêtre du dugong actuel, sont des pièces majeures des collections paléontologiques du Muséum d’Angers.
-Des disciplines minéralogique (5 000 échantillons, dont 2 000 de Maine-et-Loire) et pétrographique (600 échantillons) il est à remarquer une collection d’ardoises, un bloc monumental de quartz aciculaire radié, des échantillons d’or natif et des météorites[21].
+Des disciplines minéralogique (5 000 échantillons, dont 2 000 de Maine-et-Loire) et pétrographique (600 échantillons) il est à remarquer une collection d’ardoises, un bloc monumental de quartz aciculaire radié, des échantillons d’or natif et des météorites.
 La météorite de L'Aigle, tombée le 26 avril 1803 à L’Aigle (Orne, Normandie), est à l’origine de l’étude des météorites. La météorite d’Angers est tombée en 1822 (3 juin, 20h15) à Angers (La Doutre).
 D’autres échantillons sont surtout des minéraux régionaux français, de Madagascar et du Chili, mais représentent toutes les familles de minéraux.
-Préhistoire
-Les collections de préhistoire totalisent environ 53 000 objets grâce surtout au site paléolithique de Roc-en-Pail[2]. Connu depuis le début du XXe siècle, le site de Roc-en-Pail, à Chalonnes-sur-Loire, a abouti à une grande diversité d’objets : des dents de mammouth, des bois de rennes, des ossements divers et des outils lithiques, preuves d’une ancienne occupation humaine du site.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Muséum_des_sciences_naturelles_d'Angers</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_des_sciences_naturelles_d%27Angers</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Préhistoire</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les collections de préhistoire totalisent environ 53 000 objets grâce surtout au site paléolithique de Roc-en-Pail. Connu depuis le début du XXe siècle, le site de Roc-en-Pail, à Chalonnes-sur-Loire, a abouti à une grande diversité d’objets : des dents de mammouth, des bois de rennes, des ossements divers et des outils lithiques, preuves d’une ancienne occupation humaine du site.
 Les fouilles systématiques de Michel Gruet (1912-1998) dans les années 1940 à 1980 ont été particulièrement heureuses, et la découverte d’ossements néandertaliens (mâchoire, dent isolée et humérus), en partie exposés au Muséum d’Angers, n’a que confirmé l’importance du site pour l’étude de la préhistoire en Anjou et même en Europe.
 Le matériel issu des campagnes de fouilles à Roc-en-Pail entre 2016 et 2018 intégrera aussi les collections du Muséum d’Angers. L’exposition permanente de préhistoire a été enrichie de vitrines se rapportant à l’évolution humaine, dont une vitrine montrant des moulages de crânes fossiles dans l’arbre phylogénétique humain et d’une installation de primatologie.
-Spécimens remarquables
-Scientifiques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Muséum_des_sciences_naturelles_d'Angers</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_des_sciences_naturelles_d%27Angers</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Spécimens remarquables</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Scientifiques
 Spécimens-types (plantes, insectes, fossiles)
 Collections de référence (araignées de Maine-et-Loire)
 Historiques
@@ -719,34 +986,39 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Mus%C3%A9um_des_sciences_naturelles_d%27Angers</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_des_sciences_naturelles_d%27Angers</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Muséum_des_sciences_naturelles_d'Angers</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_des_sciences_naturelles_d%27Angers</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Parcours d'exposition</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Expositions permanentes
-L'exposition permanente comprend plusieurs salles :
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Expositions permanentes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'exposition permanente comprend plusieurs salles :
 La rotonde
 Histoire des muséums en France, du muséum d'Angers et de ses collections.
 Zone d'actualité
@@ -775,47 +1047,82 @@
 			Ronde des mammifères, Muséum d'Angers
 			Squelette de tigresse, Panthera tigris, Muséum d'Angers
 			Salle de paléontologie, Muséum d'Angers
-Expositions temporaires
-2022-2024 "Météorites, entre ciel et terre ! " [1]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Muséum_des_sciences_naturelles_d'Angers</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_des_sciences_naturelles_d%27Angers</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Parcours d'exposition</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Expositions temporaires</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2022-2024 "Météorites, entre ciel et terre ! " 
 2021-2022 "Foraminifères, l'Océan à la loupe"
 2021-2022 "Au temps des faluns", au Musée des Beaux-Arts, 34 637 visiteurs
 2019 « Insula Utopia / Inventaire du Ciel », œuvres et installations de Richard Rak
 2018 « Hungry Planet », photographies de Peter Menzel et Faith d’Aluisio
-2018 « La grande parade des animaux », au Musée des Beaux-Arts[22]
-2018 « HerbEnLoire : trésors retrouvés »[23]
-2017 « Les animaux du noir », photographies de Katrin Backes et Sylvain Tanquerel[24]
-2017 « Drôles d’oiseaux »[25]
-2016 « L’aventure botanique des Caraïbes aux bords de la Loire »[26]
-2015 « Bestioles d’Anjou », photographies de Sylvie Mercier[27]
-2015 « Gravex naturalis : espèce en voie d’exposition »[28]
-2015 « Sols fertiles, vie secrètes »[29]
-2014 « Zoos humains : l’invention du sauvage »[30]
-2014 « Traces des absents », œuvres de Hélène Gay[31]
-2014 « Récolement ? ... ça colle ! 10 ans de récolement des collections »[32]
-2014 « Portraits de famille », montages de Hélène Benzacar[33]
-2014 « Flore », peintures de Catherine Brasebin[34]
-2013 « Espèces en folie »[35]
-2013 « Alarme et camouflage »[36]
-2012 « Écorces », photographies de Cédric Pollet[37]
-2012 « Art d’ici : univers singuliers », peinture/sculpture (Société des Artistes Angevins)[38]
-2011 « Safari urbain », photographies de Laurent Geslin[39]
-2011 « Abriter les papillons », à l’Arboretum Gaston-Allard[40]
-2010 « Biodiversité : le Muséum sort de sa réserve »[41]
-2009 « Darwin : mission Galápagos », bicentenaire[42]
-2009 « J'ai capturé dans mes filets », récits de Thérèse Bonnétat et tapisseries de Muriel Crochet[43]
-2008 « L’Anjou sous nos pieds », géologie de l’Anjou[44]
-2008 « Curieuses invitées », œuvres de Juliette Vicart[45]
-2008 « L'animal griffé », dessins et sculptures de Delphine Izzo[46]
-2007 « Double visite : 5 artistes au Muséum »[47]
-2007 « Nom : Carl v. Linné, Profession : naturaliste », tricentenaire[48]
+2018 « La grande parade des animaux », au Musée des Beaux-Arts
+2018 « HerbEnLoire : trésors retrouvés »
+2017 « Les animaux du noir », photographies de Katrin Backes et Sylvain Tanquerel
+2017 « Drôles d’oiseaux »
+2016 « L’aventure botanique des Caraïbes aux bords de la Loire »
+2015 « Bestioles d’Anjou », photographies de Sylvie Mercier
+2015 « Gravex naturalis : espèce en voie d’exposition »
+2015 « Sols fertiles, vie secrètes »
+2014 « Zoos humains : l’invention du sauvage »
+2014 « Traces des absents », œuvres de Hélène Gay
+2014 « Récolement ? ... ça colle ! 10 ans de récolement des collections »
+2014 « Portraits de famille », montages de Hélène Benzacar
+2014 « Flore », peintures de Catherine Brasebin
+2013 « Espèces en folie »
+2013 « Alarme et camouflage »
+2012 « Écorces », photographies de Cédric Pollet
+2012 « Art d’ici : univers singuliers », peinture/sculpture (Société des Artistes Angevins)
+2011 « Safari urbain », photographies de Laurent Geslin
+2011 « Abriter les papillons », à l’Arboretum Gaston-Allard
+2010 « Biodiversité : le Muséum sort de sa réserve »
+2009 « Darwin : mission Galápagos », bicentenaire
+2009 « J'ai capturé dans mes filets », récits de Thérèse Bonnétat et tapisseries de Muriel Crochet
+2008 « L’Anjou sous nos pieds », géologie de l’Anjou
+2008 « Curieuses invitées », œuvres de Juliette Vicart
+2008 « L'animal griffé », dessins et sculptures de Delphine Izzo
+2007 « Double visite : 5 artistes au Muséum »
+2007 « Nom : Carl v. Linné, Profession : naturaliste », tricentenaire
 2006 « Amazone nature »
 2006 « Ligne du Monde »
 2006 « Naturellement Loire... une escale en Anjou »
-2005 « Réserves », photographies de Hélène Benzacar »[49]
-2005 « Voyage dans la troisième dimension », exposition holographique[50]
+2005 « Réserves », photographies de Hélène Benzacar »
+2005 « Voyage dans la troisième dimension », exposition holographique
 2005 « Photographes de nature », photographies de BBC Wildlife Magazine
 2005 « Chauves-souris de chez nous »
-2004 « Forêt ou le frémissement des limbes », photographies et installations de Laurent Vergne[51]
+2004 « Forêt ou le frémissement des limbes », photographies et installations de Laurent Vergne
 2004 « Histoires naturelles », œuvres de Sylvie Mercier de Flandre
 2004 « La faune du Mali »
 2003 « Algérie, deux millions d’années d’histoire : les premiers habitants »
@@ -829,73 +1136,80 @@
 2000 « La ménagerie du roi René »
 1999 « Trésors botaniques d’Angers »
 1999 « Le petit peuple des champs et des bois », photographies de Michel Beucher
-1998 « Rêveur au long cours », installations de Richard Rak[52]
+1998 « Rêveur au long cours », installations de Richard Rak
 1996 « Ages et images de la terre »
 1994 « Baleines en vue »
 1993 « Point Info dinosaures »
-1990 « Roc en Pail – 50 000 ans de préhistoire angevine », une exposition présentant les résultats des fouilles archéologiques de Michel Gruet dans le gisement moustérien de Roc-en-Pail ; une partie de cette exposition est encore visible dans l’exposition permanente du Muséum[53]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Mus%C3%A9um_des_sciences_naturelles_d%27Angers</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_des_sciences_naturelles_d%27Angers</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+1990 « Roc en Pail – 50 000 ans de préhistoire angevine », une exposition présentant les résultats des fouilles archéologiques de Michel Gruet dans le gisement moustérien de Roc-en-Pail ; une partie de cette exposition est encore visible dans l’exposition permanente du Muséum</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Muséum_des_sciences_naturelles_d'Angers</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_des_sciences_naturelles_d%27Angers</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Fréquentation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Mus%C3%A9um_des_sciences_naturelles_d%27Angers</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_des_sciences_naturelles_d%27Angers</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Muséum_des_sciences_naturelles_d'Angers</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_des_sciences_naturelles_d%27Angers</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Directeurs-Conservateurs</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Muséum
-Joseph-Étienne Renou, 1798-1809ouverture au public 1801
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Muséum</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Joseph-Étienne Renou, 1798-1809ouverture au public 1801
 Toussaint Bastard, 1809-1816 a- Toussaint Grille, juin-octobre 1816 (par intérim)
 François Richard de Tussac, 1816-1822 a- Guilloteau, directeur de facto, 1809-1821- Desvaux, directeur de facto, 1821
 Auguste Nicaise Desvaux, 1822-1838 a
@@ -910,9 +1224,43 @@
 Michel Gruet, 1976-1990 e- Catherine Lesseur, janvier 1991-1993 (par intérim)
 Robert Jullien, 1993-2000
 Vincent Dennys, 2001-2015- Benoît Mellier, janvier-décembre 2016 (par intérim)
-Anne Esnault, depuis 2017rattachement aux Musées d'Angers en 2017
-Musée Botanique
-Albert Gaillard, 1898-1903
+Anne Esnault, depuis 2017rattachement aux Musées d'Angers en 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Muséum_des_sciences_naturelles_d'Angers</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mus%C3%A9um_des_sciences_naturelles_d%27Angers</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Directeurs-Conservateurs</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Musée Botanique</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert Gaillard, 1898-1903
 Georges Bouvet, 1904-1929 c
 Ernest Préaubert, 1930-1933
 Georges Bioret, 1934-1953
